--- a/data/flea_dog_cat.xlsx
+++ b/data/flea_dog_cat.xlsx
@@ -409,7 +409,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -426,7 +426,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -443,7 +443,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>

--- a/data/flea_dog_cat.xlsx
+++ b/data/flea_dog_cat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">animal</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">flea_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
   </si>
   <si>
     <t xml:space="preserve">grade</t>
@@ -380,10 +383,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>5.7</v>
@@ -392,15 +398,18 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E2" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>8.9</v>
@@ -409,15 +418,18 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E3" t="n">
         <v>8</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>11.8</v>
@@ -426,66 +438,78 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>8.2</v>
+        <v>5.6</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="C6" t="n">
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.1</v>
+        <v>8.2</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>7.6</v>
@@ -494,15 +518,18 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>3.2</v>
@@ -511,15 +538,18 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
         <v>2.2</v>
@@ -528,15 +558,18 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E10" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
         <v>5.4</v>
@@ -545,15 +578,18 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
         <v>4.1</v>
@@ -562,15 +598,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
         <v>4.3</v>
@@ -579,15 +618,18 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
         <v>7.9</v>
@@ -596,15 +638,18 @@
         <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
         <v>6.1</v>
@@ -613,9 +658,12 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E15" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
